--- a/biology/Médecine/Berlue/Berlue.xlsx
+++ b/biology/Médecine/Berlue/Berlue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La berlue est un ancien terme médical utilisé dès le XIIe siècle pour définir un symptôme qui correspond à une sensation visuelle anormale avec la perception d'objets ou de lumière qu'on n'a pas réellement devant les yeux[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La berlue est un ancien terme médical utilisé dès le XIIe siècle pour définir un symptôme qui correspond à une sensation visuelle anormale avec la perception d'objets ou de lumière qu'on n'a pas réellement devant les yeux.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Deux versions sont proposées
-Le Dictionnaire de l’Académie française  présente ce terme comme une forme dérivée de lucere (luire), de l'italien barlume (avec le préfixe ber ou bar qui a un sens péjoratif) [2].
-Le Dictionnaire étymologique de Bloch-Wartburg, la plus grande autorité reconnue dans le monde universitaire, donne une origine beaucoup plus compliquée : le mot serait issu du grec pompholix, « bulle d'eau » qui aurait donné en latin famfaluca, devenu *biluca par changement de préfixe dès le bas-latin, avec évolution en *belue, puis berlue[3].</t>
+Le Dictionnaire de l’Académie française  présente ce terme comme une forme dérivée de lucere (luire), de l'italien barlume (avec le préfixe ber ou bar qui a un sens péjoratif) .
+Le Dictionnaire étymologique de Bloch-Wartburg, la plus grande autorité reconnue dans le monde universitaire, donne une origine beaucoup plus compliquée : le mot serait issu du grec pompholix, « bulle d'eau » qui aurait donné en latin famfaluca, devenu *biluca par changement de préfixe dès le bas-latin, avec évolution en *belue, puis berlue.</t>
         </is>
       </c>
     </row>
@@ -543,9 +557,11 @@
           <t>Mot ancien</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On parlait aussi jusqu'au XVIIe siècle de berluette, de brelue, d'ébrelue, de beurlu, de bluette[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On parlait aussi jusqu'au XVIIe siècle de berluette, de brelue, d'ébrelue, de beurlu, de bluette.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>De nos jours</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Mot vieilli qu'on retrouve principalement dans l'expression française « avoir la berlue » qui signifie percevoir des choses imaginaires.
 De nos jours, bien que le mot ait donné naissance au mot éberlué, il n'est plus utilisé ; médicalement, on parlera de myodésopsie, de phosphène ou de scotome.
